--- a/docs/envibot/Pedidos.xlsx
+++ b/docs/envibot/Pedidos.xlsx
@@ -9,25 +9,97 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="DVfL+BUy+aZCTYfDu9GbsZp9WhxEwHGTld0ajtEe+5g="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="MjJqe6K9gwbIoexQmVIaG5nxVpCD6BwlxKSH6dx+odc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Celular</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Talla</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
   <si>
     <t># de guia</t>
+  </si>
+  <si>
+    <t>CINTURILLA_CHALECO</t>
+  </si>
+  <si>
+    <t>Juanito</t>
+  </si>
+  <si>
+    <t>Calle 123</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>Beige</t>
+  </si>
+  <si>
+    <t>PENDIENTE_COMPRA_DROPI</t>
+  </si>
+  <si>
+    <t>CINTURILLA_SOLA</t>
+  </si>
+  <si>
+    <t>Karina Chacón</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>Xs</t>
+  </si>
+  <si>
+    <t>Negro</t>
+  </si>
+  <si>
+    <t>Alexander Montenegro</t>
+  </si>
+  <si>
+    <t>Calle 137 #85-16</t>
+  </si>
+  <si>
+    <t>XS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12.0"/>
@@ -36,9 +108,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,12 +127,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,6 +352,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="14.11"/>
+    <col customWidth="1" min="4" max="4" width="27.11"/>
+    <col customWidth="1" min="5" max="5" width="9.78"/>
+    <col customWidth="1" min="10" max="10" width="22.44"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -282,15 +366,141 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>3.045993015E9</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.23456789E9</v>
+      <c r="A2" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.0491917271912E13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.73045993015E11</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45705.0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.212121212E9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.003587015E9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5.73222273737E11</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45705.0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.313131313E9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.123139997E9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.73123139997E11</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45705.0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.414141414E9</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -1269,8 +1479,6 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
